--- a/Nutanix_task_tracker.xlsx
+++ b/Nutanix_task_tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/syedfahad.tauseef/Personal/Advanced_python_practice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{483DE7E0-02CF-8045-B959-5533767FB26A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01235D57-FB08-8249-AD10-DC7B5D88707F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5180" yWindow="3000" windowWidth="28040" windowHeight="17440" xr2:uid="{F10E5053-2875-CA45-B0AC-C55423D6BEBF}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Ticket Name</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>flow upgrade</t>
   </si>
 </sst>
 </file>
@@ -487,7 +490,7 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -594,6 +597,12 @@
       <c r="A13" s="6">
         <v>45292</v>
       </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13">
+        <v>135</v>
+      </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">

--- a/Nutanix_task_tracker.xlsx
+++ b/Nutanix_task_tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/syedfahad.tauseef/Personal/Advanced_python_practice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01235D57-FB08-8249-AD10-DC7B5D88707F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16FF8CC4-5847-184A-B219-DD445A69D698}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5180" yWindow="3000" windowWidth="28040" windowHeight="17440" xr2:uid="{F10E5053-2875-CA45-B0AC-C55423D6BEBF}"/>
+    <workbookView xWindow="10360" yWindow="500" windowWidth="28040" windowHeight="17140" xr2:uid="{F10E5053-2875-CA45-B0AC-C55423D6BEBF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Ticket Name</t>
   </si>
@@ -86,6 +86,12 @@
   </si>
   <si>
     <t>flow upgrade</t>
+  </si>
+  <si>
+    <t>@1</t>
+  </si>
+  <si>
+    <t>@2</t>
   </si>
 </sst>
 </file>
@@ -487,10 +493,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0E3600C-5B95-7B43-9403-DA5EDAEF532F}">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -501,7 +507,7 @@
     <col min="4" max="4" width="29.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" ht="43" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="43" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -512,12 +518,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="4" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" s="4" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>45231</v>
       </c>
@@ -527,16 +533,22 @@
       <c r="C3">
         <v>156</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>4</v>
       </c>
       <c r="C4">
         <v>175</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>10</v>
       </c>
@@ -546,24 +558,33 @@
       <c r="D5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>9</v>
       </c>
       <c r="C6">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>5</v>
       </c>
       <c r="C7">
         <v>426</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="F7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>45261</v>
       </c>
@@ -576,24 +597,33 @@
       <c r="D9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>12</v>
       </c>
       <c r="C10">
         <v>196</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>13</v>
       </c>
       <c r="C11">
         <v>155</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>45292</v>
       </c>
@@ -601,7 +631,10 @@
         <v>15</v>
       </c>
       <c r="C13">
-        <v>135</v>
+        <v>141</v>
+      </c>
+      <c r="F13">
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -609,7 +642,7 @@
         <v>14</v>
       </c>
       <c r="C30">
-        <v>1241</v>
+        <v>1382</v>
       </c>
     </row>
   </sheetData>
